--- a/그림.xlsx
+++ b/그림.xlsx
@@ -23,9 +23,22 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>출발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,8 +54,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -52,6 +73,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -85,7 +112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -93,6 +120,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -271,16 +304,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>13</xdr:col>
-          <xdr:colOff>428625</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>457200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -289,7 +322,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$F$6" spid="_x0000_s1033"/>
+                  <a14:cameraTool cellRange="$A$1:$F$6" spid="_x0000_s1039"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -303,7 +336,7 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4219575" y="1285875"/>
+              <a:off x="2619375" y="9525"/>
               <a:ext cx="2600325" cy="2581275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -326,6 +359,355 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="직선 연결선 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="3924300"/>
+          <a:ext cx="2114550" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="직선 연결선 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4476750"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>295277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="직선 연결선 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="3933827"/>
+          <a:ext cx="0" cy="581023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="직선 연결선 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086475" y="5000625"/>
+          <a:ext cx="628650" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="직선 연결선 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6115050" y="4457702"/>
+          <a:ext cx="0" cy="581023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>266702</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="직선 연결선 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6696075" y="4972052"/>
+          <a:ext cx="0" cy="581023"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>109590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="그림 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7848601" y="3162301"/>
+          <a:ext cx="3162299" cy="2719439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -592,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E6"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -604,32 +986,106 @@
     <col min="6" max="6" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="2:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/그림.xlsx
+++ b/그림.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,13 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>출발</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;그림 1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;그림 2&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +88,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -112,7 +139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,6 +154,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -322,7 +361,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$F$6" spid="_x0000_s1039"/>
+                  <a14:cameraTool cellRange="$A$1:$F$6" spid="_x0000_s1040"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -690,6 +729,66 @@
         <a:xfrm>
           <a:off x="7848601" y="3162301"/>
           <a:ext cx="3162299" cy="2719439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="209550"/>
+          <a:ext cx="3581400" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -976,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
@@ -1093,4 +1192,338 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="6">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2</v>
+      </c>
+      <c r="O5" s="7">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3</v>
+      </c>
+      <c r="L7" s="8">
+        <v>3</v>
+      </c>
+      <c r="M7" s="8">
+        <v>3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>3</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/그림.xlsx
+++ b/그림.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>출발</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,14 @@
   </si>
   <si>
     <t>&lt;그림 2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서 본 모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞에서 본 모양</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +117,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,13 +147,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +217,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,7 +427,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$A$1:$F$6" spid="_x0000_s1040"/>
+                  <a14:cameraTool cellRange="$A$1:$F$6" spid="_x0000_s1042"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -789,6 +855,61 @@
         <a:xfrm>
           <a:off x="4286250" y="209550"/>
           <a:ext cx="3581400" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4286250" y="2724150"/>
+          <a:ext cx="2867025" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1196,15 +1317,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P9"/>
+  <dimension ref="A2:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
         <v>0</v>
       </c>
@@ -1248,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1292,7 +1413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -1336,7 +1457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>0</v>
       </c>
@@ -1380,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>0</v>
       </c>
@@ -1424,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>0</v>
       </c>
@@ -1468,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="5">
         <v>0</v>
       </c>
@@ -1512,13 +1633,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
